--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,62; 52,74</t>
+          <t>46,43; 52,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,99; 28,7</t>
+          <t>22,93; 28,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,63; 50,66</t>
+          <t>43,26; 50,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,13; 54,76</t>
+          <t>46,46; 54,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,54; 55,0</t>
+          <t>49,18; 54,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,85; 39,2</t>
+          <t>33,61; 39,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,99; 59,38</t>
+          <t>53,36; 59,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,38; 63,8</t>
+          <t>58,2; 63,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,01; 52,98</t>
+          <t>48,85; 52,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 33,8</t>
+          <t>30,07; 33,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,87; 54,8</t>
+          <t>50,02; 54,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,67; 59,27</t>
+          <t>54,45; 59,19</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,04; 42,94</t>
+          <t>38,18; 43,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 25,05</t>
+          <t>21,15; 25,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 34,14</t>
+          <t>30,17; 34,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 33,31</t>
+          <t>27,83; 33,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,0; 46,04</t>
+          <t>41,02; 45,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 32,5</t>
+          <t>28,1; 32,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,79; 42,15</t>
+          <t>37,67; 42,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 37,82</t>
+          <t>29,25; 37,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,21; 43,65</t>
+          <t>40,27; 43,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 27,79</t>
+          <t>24,87; 27,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 37,33</t>
+          <t>34,28; 37,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 34,83</t>
+          <t>30,42; 34,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 31,01</t>
+          <t>22,68; 30,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,2</t>
+          <t>10,52; 17,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,57</t>
+          <t>19,66; 27,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,16</t>
+          <t>19,95; 27,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,36; 43,78</t>
+          <t>34,6; 43,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 22,13</t>
+          <t>14,79; 22,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,64; 32,44</t>
+          <t>24,34; 32,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 29,01</t>
+          <t>22,96; 29,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,35; 35,3</t>
+          <t>29,5; 35,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 18,46</t>
+          <t>13,32; 18,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 28,59</t>
+          <t>22,99; 28,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 27,1</t>
+          <t>22,71; 27,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,35; 42,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,0; 24,05</t>
+          <t>21,11; 23,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 35,46</t>
+          <t>32,43; 35,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 34,65</t>
+          <t>30,44; 34,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,28; 47,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 32,45</t>
+          <t>29,35; 32,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 44,52</t>
+          <t>40,98; 44,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,85; 40,96</t>
+          <t>35,09; 40,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,39; 44,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 27,9</t>
+          <t>25,66; 27,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,25; 39,65</t>
+          <t>37,27; 39,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 37,37</t>
+          <t>34,11; 37,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,43; 52,58</t>
+          <t>46,69; 52,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,93; 28,73</t>
+          <t>23,03; 28,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,26; 50,64</t>
+          <t>43,3; 50,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,18; 54,8</t>
+          <t>49,07; 54,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,61; 39,13</t>
+          <t>33,63; 39,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,36; 59,8</t>
+          <t>53,21; 60,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,85; 52,99</t>
+          <t>48,94; 53,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,07; 33,87</t>
+          <t>30,0; 34,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,02; 54,78</t>
+          <t>49,92; 54,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,18; 43,01</t>
+          <t>38,14; 42,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,15; 25,02</t>
+          <t>21,01; 24,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 34,21</t>
+          <t>29,94; 34,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,02; 45,86</t>
+          <t>40,57; 45,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,1; 32,58</t>
+          <t>28,09; 32,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,67; 42,16</t>
+          <t>37,59; 41,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,27; 43,68</t>
+          <t>40,12; 43,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,87; 27,87</t>
+          <t>24,81; 27,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 37,35</t>
+          <t>34,33; 37,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,88</t>
+          <t>22,84; 30,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,43</t>
+          <t>10,62; 17,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,66; 27,0</t>
+          <t>19,62; 26,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,6; 43,69</t>
+          <t>34,39; 43,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 22,1</t>
+          <t>14,73; 22,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,34; 32,66</t>
+          <t>24,59; 32,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 35,44</t>
+          <t>29,49; 35,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 18,4</t>
+          <t>13,41; 18,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,99; 28,56</t>
+          <t>23,02; 28,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,79</t>
+          <t>39,34; 42,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 23,96</t>
+          <t>20,94; 23,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,43; 35,59</t>
+          <t>32,31; 35,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,28; 47,71</t>
+          <t>44,43; 47,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 32,38</t>
+          <t>29,31; 32,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,98; 44,36</t>
+          <t>40,99; 44,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,39; 44,89</t>
+          <t>42,4; 44,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 27,83</t>
+          <t>25,69; 27,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,27; 39,7</t>
+          <t>37,27; 39,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,69; 52,78</t>
+          <t>46,62; 52,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,03; 28,85</t>
+          <t>22,99; 28,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,3; 50,3</t>
+          <t>43,63; 50,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,46; 54,65</t>
+          <t>47,13; 54,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,07; 54,52</t>
+          <t>49,54; 55,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 39,06</t>
+          <t>33,85; 39,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,21; 60,04</t>
+          <t>52,99; 59,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,2; 63,8</t>
+          <t>58,38; 63,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,94; 53,17</t>
+          <t>49,01; 52,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,0; 34,0</t>
+          <t>29,78; 33,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,92; 54,91</t>
+          <t>49,87; 54,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,45; 59,19</t>
+          <t>54,67; 59,27</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,14; 42,95</t>
+          <t>38,04; 42,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 24,94</t>
+          <t>20,97; 25,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,94; 34,04</t>
+          <t>29,73; 34,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,83; 33,04</t>
+          <t>28,3; 33,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,57; 45,8</t>
+          <t>41,0; 46,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,09; 32,75</t>
+          <t>28,03; 32,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,59; 41,99</t>
+          <t>37,79; 42,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 37,73</t>
+          <t>29,76; 37,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,12; 43,71</t>
+          <t>40,21; 43,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,81; 27,78</t>
+          <t>24,71; 27,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,33; 37,45</t>
+          <t>34,24; 37,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 34,99</t>
+          <t>29,71; 34,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,89</t>
+          <t>23,08; 31,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,73</t>
+          <t>10,18; 17,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 26,98</t>
+          <t>19,42; 26,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 27,36</t>
+          <t>20,11; 27,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,39; 43,19</t>
+          <t>34,36; 43,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,73; 22,03</t>
+          <t>14,36; 22,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,77</t>
+          <t>24,64; 32,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,96; 29,14</t>
+          <t>23,18; 29,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,49; 35,51</t>
+          <t>29,35; 35,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,41</t>
+          <t>13,59; 18,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,02; 28,57</t>
+          <t>22,86; 28,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 27,25</t>
+          <t>22,52; 27,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,34; 42,7</t>
+          <t>39,18; 42,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 23,94</t>
+          <t>21,0; 24,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 35,62</t>
+          <t>32,23; 35,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 34,33</t>
+          <t>30,46; 34,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,43; 47,86</t>
+          <t>44,36; 47,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,31; 32,5</t>
+          <t>29,23; 32,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,99; 44,39</t>
+          <t>41,17; 44,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,09; 40,85</t>
+          <t>34,85; 40,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,4; 44,88</t>
+          <t>42,42; 44,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 27,91</t>
+          <t>25,66; 27,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,27; 39,63</t>
+          <t>37,25; 39,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,11; 37,38</t>
+          <t>33,79; 37,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,93%</t>
+          <t>56,88%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,13; 54,76</t>
+          <t>47,51; 55,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,38; 63,8</t>
+          <t>58,25; 63,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,67; 59,27</t>
+          <t>54,59; 59,14</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>31,06%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 33,31</t>
+          <t>20,96; 32,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 37,82</t>
+          <t>24,91; 38,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,71; 34,83</t>
+          <t>24,94; 34,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,8%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,16</t>
+          <t>19,96; 27,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,18; 29,01</t>
+          <t>23,3; 29,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 27,1</t>
+          <t>22,54; 27,19</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,46; 34,65</t>
+          <t>23,46; 34,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,85; 40,96</t>
+          <t>29,85; 41,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 37,37</t>
+          <t>29,58; 37,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>46,62; 52,74</t>
+          <t>46,65; 52,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,99; 28,7</t>
+          <t>23,12; 28,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,63; 50,66</t>
+          <t>43,42; 50,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,51; 55,31</t>
+          <t>47,58; 55,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,54; 55,0</t>
+          <t>49,14; 54,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,85; 39,2</t>
+          <t>33,38; 39,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,99; 59,38</t>
+          <t>53,03; 59,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,25; 63,65</t>
+          <t>58,17; 63,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,01; 52,98</t>
+          <t>48,97; 52,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,78; 33,8</t>
+          <t>30,05; 33,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,87; 54,8</t>
+          <t>49,83; 54,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,59; 59,14</t>
+          <t>54,55; 59,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,04; 42,94</t>
+          <t>38,01; 43,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 25,05</t>
+          <t>20,97; 24,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 34,14</t>
+          <t>29,9; 34,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 32,62</t>
+          <t>18,77; 32,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,0; 46,04</t>
+          <t>40,86; 46,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 32,5</t>
+          <t>28,07; 32,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,79; 42,15</t>
+          <t>37,78; 42,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 38,57</t>
+          <t>24,61; 38,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,21; 43,65</t>
+          <t>40,11; 43,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 27,79</t>
+          <t>24,92; 27,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 37,33</t>
+          <t>34,29; 37,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 34,71</t>
+          <t>25,33; 34,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 31,01</t>
+          <t>23,08; 30,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 17,2</t>
+          <t>10,7; 17,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 26,57</t>
+          <t>19,48; 26,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,96; 27,23</t>
+          <t>20,16; 27,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,36; 43,78</t>
+          <t>33,95; 43,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,36; 22,13</t>
+          <t>14,69; 22,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,64; 32,44</t>
+          <t>24,61; 32,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 29,17</t>
+          <t>23,4; 29,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,35; 35,3</t>
+          <t>29,27; 35,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 18,46</t>
+          <t>13,38; 18,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 28,59</t>
+          <t>22,87; 28,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 27,19</t>
+          <t>22,39; 27,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,67</t>
+          <t>39,54; 42,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,0; 24,05</t>
+          <t>20,97; 23,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 35,46</t>
+          <t>32,31; 35,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,46; 34,02</t>
+          <t>22,7; 33,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,36; 47,95</t>
+          <t>44,33; 47,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 32,45</t>
+          <t>29,28; 32,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 44,52</t>
+          <t>40,82; 44,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 41,25</t>
+          <t>31,98; 41,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,42; 44,95</t>
+          <t>42,41; 44,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 27,9</t>
+          <t>25,63; 27,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,25; 39,65</t>
+          <t>37,2; 39,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,58; 37,07</t>
+          <t>29,57; 36,92</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no realiza actividad física en su tiempo libre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>503473</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>251718</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>354778</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>262206</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>672539</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>485048</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>560857</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>455086</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1176012</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>736766</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>915635</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>717292</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>473457; 534661</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>225108; 279577</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>327570; 382879</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>243316; 284892</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>635503; 707950</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>446170; 522760</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>527476; 593572</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>436058; 475885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1130134; 1222320</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>694340; 777762</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>871467; 957900</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>687830; 744130</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1719</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>676612</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>449935</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>664277</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>647976</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>677355</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>530864</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>792592</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>756204</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1353967</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>980798</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1456869</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1404179</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>634746; 719988</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>411651; 489726</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>620776; 709492</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>428924; 740283</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>637248; 719453</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>493384; 570929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>751145; 837587</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>550071; 865965</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1295256; 1410719</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>927153; 1038157</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1393708; 1520251</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1145335; 1567990</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>147042</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65711</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>125524</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>151195</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>181169</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82864</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155886</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>172655</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>328211</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>148575</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>281410</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>323851</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>126193; 168937</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51479; 83644</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>106558; 146048</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>130142; 174601</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>158186; 202626</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67353; 101741</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>135158; 180909</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>154468; 193801</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>296421; 359776</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>125761; 171791</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>250615; 313715</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>292354; 353549</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1291</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1154</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2162</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2488</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3316</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1327127</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>767364</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1144579</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1061378</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1531062</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1098775</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1509335</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1383945</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2858190</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1866139</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2653914</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2445323</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1277681; 1387470</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>716600; 819659</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1091393; 1198720</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>781516; 1162127</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1471330; 1592159</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1040181; 1159173</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1441704; 1569618</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1165871; 1500338</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2777688; 2943935</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1786660; 1937543</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2570205; 2727966</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2095982; 2616851</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>